--- a/UbsRec/beta/final.xlsx
+++ b/UbsRec/beta/final.xlsx
@@ -992,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1600,6 +1600,24 @@
       <c r="E23" s="2">
         <f>G15</f>
         <v>-7.0645851009709677</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <f>H7</f>
+        <v>38.424804029226458</v>
+      </c>
+      <c r="C24" s="2">
+        <f>H15</f>
+        <v>25.114935397700211</v>
+      </c>
+      <c r="D24" s="2">
+        <f>B7</f>
+        <v>25.165258831314269</v>
+      </c>
+      <c r="E24" s="2">
+        <f>B15</f>
+        <v>17.415827815790934</v>
       </c>
     </row>
   </sheetData>

--- a/UbsRec/beta/final.xlsx
+++ b/UbsRec/beta/final.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="204">
   <si>
     <t>MSE</t>
   </si>
@@ -639,12 +639,6 @@
     <t>biasedmf_40_0.005_0.01</t>
   </si>
   <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>coat</t>
-  </si>
-  <si>
     <t>Music</t>
   </si>
   <si>
@@ -992,631 +986,639 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>202</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>0.8619</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>0.9123</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>0.67630000000000001</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>0.73129999999999995</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>1.1354</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>1.6516</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>1.2455000000000001</v>
       </c>
-      <c r="I1">
+      <c r="I2">
         <v>1.4158999999999999</v>
       </c>
-      <c r="J1">
+      <c r="J2">
         <v>0.7339</v>
       </c>
-      <c r="K1">
+      <c r="K2">
         <v>0.80410000000000004</v>
       </c>
-      <c r="L1">
+      <c r="L2">
         <v>1.839</v>
       </c>
-      <c r="M1">
+      <c r="M2">
         <v>3.6265999999999998</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="1">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
         <v>0.759795</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>0.37035699999999999</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>0.59180500000000003</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>1.408758</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="1">
         <v>2.2416140000000002</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="1">
         <v>3.077563</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="1">
         <v>1.160504</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I3" s="1">
         <v>0.28337299999999999</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J3" s="1">
         <v>0.43480400000000002</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K3" s="1">
         <v>2.1791710000000002</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L3" s="1">
         <v>5.3853609999999996</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M3" s="1">
         <v>10.032612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>1.034</v>
-      </c>
-      <c r="H3">
-        <v>1.5860000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>0.77400000000000002</v>
+        <v>1.034</v>
       </c>
       <c r="H4">
-        <v>0.97699999999999998</v>
+        <v>1.5860000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5">
-        <f>B1/0.8619*1.034</f>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f>B2/0.8619*1.034</f>
         <v>1.034</v>
       </c>
-      <c r="C5">
-        <f t="shared" ref="C5:G5" si="0">C1/0.8619*1.034</f>
+      <c r="C6">
+        <f t="shared" ref="C6:G6" si="0">C2/0.8619*1.034</f>
         <v>1.0944636268708667</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>0.81134029469776081</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>0.87732242719573039</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>1.362111149785358</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>1.9813834551572109</v>
       </c>
-      <c r="H5">
-        <f>H1/1.2455*1.586</f>
+      <c r="H6">
+        <f>H2/1.2455*1.586</f>
         <v>1.5860000000000001</v>
       </c>
-      <c r="I5">
-        <f t="shared" ref="I5:M5" si="1">I1/1.2455*1.586</f>
+      <c r="I6">
+        <f t="shared" ref="I6:M6" si="1">I2/1.2455*1.586</f>
         <v>1.8029846647932557</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <f t="shared" si="1"/>
         <v>0.93453665194700919</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>1.0239282215977519</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <f t="shared" si="1"/>
         <v>2.341753512645524</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <f t="shared" si="1"/>
         <v>4.6180550782818139</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <f>B2/0.76*0.774</f>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <f>B3/0.76*0.774</f>
         <v>0.77379122368421049</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:G6" si="2">C2/0.76*0.774</f>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:G7" si="2">C3/0.76*0.774</f>
         <v>0.3771793657894737</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <f t="shared" si="2"/>
         <v>0.60270667105263154</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>1.4347088052631578</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <f t="shared" si="2"/>
         <v>2.2829068894736841</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="2"/>
         <v>3.1342549500000003</v>
       </c>
-      <c r="H6" s="1">
-        <f>H2/1.161*0.977</f>
+      <c r="H7" s="1">
+        <f>H3/1.161*0.977</f>
         <v>0.97658260809646846</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" ref="I6:M6" si="3">I2/1.161*0.977</f>
+      <c r="I7" s="1">
+        <f t="shared" ref="I7:M7" si="3">I3/1.161*0.977</f>
         <v>0.23846289491817396</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J7" s="1">
         <f t="shared" si="3"/>
         <v>0.36589449440137817</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="3"/>
         <v>1.8338071205857021</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="3"/>
         <v>4.5318670947459081</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="3"/>
         <v>8.4426028630490944</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <f>(B5-B6)/B5*100</f>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f>(B6-B7)/B6*100</f>
         <v>25.165258831314269</v>
       </c>
-      <c r="C7" s="2">
-        <f>(C5-C6)/C5*100</f>
+      <c r="C8" s="2">
+        <f>(C6-C7)/C6*100</f>
         <v>65.537514767132933</v>
       </c>
-      <c r="D7" s="2">
-        <f>(D5-D6)/D5*100</f>
+      <c r="D8" s="2">
+        <f>(D6-D7)/D6*100</f>
         <v>25.714687783730639</v>
       </c>
-      <c r="E7" s="2">
-        <f>(E5-E6)/E5*100</f>
+      <c r="E8" s="2">
+        <f>(E6-E7)/E6*100</f>
         <v>-63.532671773712067</v>
       </c>
-      <c r="F7" s="2">
-        <f>(F5-F6)/F5*100</f>
+      <c r="F8" s="2">
+        <f>(F6-F7)/F6*100</f>
         <v>-67.600631551501905</v>
       </c>
-      <c r="G7" s="2">
-        <f>(G5-G6)/G5*100</f>
+      <c r="G8" s="2">
+        <f>(G6-G7)/G6*100</f>
         <v>-58.185178232010415</v>
       </c>
-      <c r="H7" s="2">
-        <f>(H5-H6)/H5*100</f>
+      <c r="H8" s="2">
+        <f>(H6-H7)/H6*100</f>
         <v>38.424804029226458</v>
       </c>
-      <c r="I7" s="2">
-        <f>(I5-I6)/I5*100</f>
+      <c r="I8" s="2">
+        <f>(I6-I7)/I6*100</f>
         <v>86.773992060242065</v>
       </c>
-      <c r="J7" s="2">
-        <f>(J5-J6)/J5*100</f>
+      <c r="J8" s="2">
+        <f>(J6-J7)/J6*100</f>
         <v>60.847496602827157</v>
       </c>
-      <c r="K7" s="2">
-        <f>(K5-K6)/K5*100</f>
+      <c r="K8" s="2">
+        <f>(K6-K7)/K6*100</f>
         <v>-79.095280499662749</v>
       </c>
-      <c r="L7" s="2">
-        <f>(L5-L6)/L5*100</f>
+      <c r="L8" s="2">
+        <f>(L6-L7)/L6*100</f>
         <v>-93.524513586665691</v>
       </c>
-      <c r="M7" s="2">
-        <f>(M5-M6)/M5*100</f>
+      <c r="M8" s="2">
+        <f>(M6-M7)/M6*100</f>
         <v>-82.817283898446604</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>203</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0.88</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1.0652999999999999</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0.65810000000000002</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>0.5917</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0.88949999999999996</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>1.4649000000000001</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>1.3001</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>1.7585</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>0.70889999999999997</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>0.5857</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>1.2607999999999999</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>3.1009000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
         <v>0.76694799999999996</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>0.71663900000000003</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>0.60665500000000006</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>0.66176000000000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="1">
         <v>0.99731999999999998</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <v>1.6551610000000001</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="1">
         <v>1.0167459999999999</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I11" s="1">
         <v>0.95710099999999998</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J11" s="1">
         <v>0.57816900000000004</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K11" s="1">
         <v>0.67329499999999998</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L11" s="1">
         <v>1.457808</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M11" s="1">
         <v>3.5864660000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="H11">
-        <v>1.2989999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>0.75900000000000001</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="H12">
-        <v>0.97299999999999998</v>
+        <v>1.2989999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13">
-        <f>B9/0.88*0.919</f>
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f>B10/0.88*0.919</f>
         <v>0.91900000000000004</v>
       </c>
-      <c r="C13">
-        <f t="shared" ref="C13:G13" si="4">C9/0.88*0.919</f>
+      <c r="C14">
+        <f t="shared" ref="C14:G14" si="4">C10/0.88*0.919</f>
         <v>1.1125121590909091</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f t="shared" si="4"/>
         <v>0.68726579545454547</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f t="shared" si="4"/>
         <v>0.61792306818181819</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f t="shared" si="4"/>
         <v>0.92892102272727273</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <f t="shared" si="4"/>
         <v>1.5298217045454547</v>
       </c>
-      <c r="H13">
-        <f>H9/1.3001*1.299</f>
+      <c r="H14">
+        <f>H10/1.3001*1.299</f>
         <v>1.2989999999999999</v>
       </c>
-      <c r="I13">
-        <f t="shared" ref="I13:M13" si="5">I9/1.3001*1.299</f>
+      <c r="I14">
+        <f t="shared" ref="I14:M14" si="5">I10/1.3001*1.299</f>
         <v>1.7570121529113143</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <f t="shared" si="5"/>
         <v>0.70830020767633251</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <f t="shared" si="5"/>
         <v>0.5852044458118606</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <f t="shared" si="5"/>
         <v>1.2597332512883621</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <f t="shared" si="5"/>
         <v>3.098276363356665</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <f>B10/0.767*0.759</f>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <f>B11/0.767*0.759</f>
         <v>0.75894854237288134</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" ref="C14:G14" si="6">C10/0.767*0.759</f>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:G15" si="6">C11/0.767*0.759</f>
         <v>0.70916427770534551</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <f t="shared" si="6"/>
         <v>0.60032743807040423</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <f t="shared" si="6"/>
         <v>0.6548576792698827</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <f t="shared" si="6"/>
         <v>0.98691770534550194</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
         <f t="shared" si="6"/>
         <v>1.637897260756193</v>
       </c>
-      <c r="H14" s="1">
-        <f>H10/1.017*0.973</f>
+      <c r="H15" s="1">
+        <f>H11/1.017*0.973</f>
         <v>0.97275698918387421</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" ref="I14:M14" si="7">I10/1.017*0.973</f>
+      <c r="I15" s="1">
+        <f t="shared" ref="I15:M15" si="7">I11/1.017*0.973</f>
         <v>0.91569250049164208</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J15" s="1">
         <f t="shared" si="7"/>
         <v>0.5531548053097346</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K15" s="1">
         <f t="shared" si="7"/>
         <v>0.64416522615535887</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L15" s="1">
         <f t="shared" si="7"/>
         <v>1.3947366607669618</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M15" s="1">
         <f t="shared" si="7"/>
         <v>3.431299329400197</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
-        <f>(B13-B14)/B13*100</f>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f>(B14-B15)/B14*100</f>
         <v>17.415827815790934</v>
       </c>
-      <c r="C15" s="2">
-        <f>(C13-C14)/C13*100</f>
+      <c r="C16" s="2">
+        <f>(C14-C15)/C14*100</f>
         <v>36.255593081801443</v>
       </c>
-      <c r="D15" s="2">
-        <f>(D13-D14)/D13*100</f>
+      <c r="D16" s="2">
+        <f>(D14-D15)/D14*100</f>
         <v>12.649888581555516</v>
       </c>
-      <c r="E15" s="2">
-        <f>(E13-E14)/E13*100</f>
+      <c r="E16" s="2">
+        <f>(E14-E15)/E14*100</f>
         <v>-5.9772183609751295</v>
       </c>
-      <c r="F15" s="2">
-        <f>(F13-F14)/F13*100</f>
+      <c r="F16" s="2">
+        <f>(F14-F15)/F14*100</f>
         <v>-6.2434460195500163</v>
       </c>
-      <c r="G15" s="2">
-        <f>(G13-G14)/G13*100</f>
+      <c r="G16" s="2">
+        <f>(G14-G15)/G14*100</f>
         <v>-7.0645851009709677</v>
       </c>
-      <c r="H15" s="2">
-        <f>(H13-H14)/H13*100</f>
+      <c r="H16" s="2">
+        <f>(H14-H15)/H14*100</f>
         <v>25.114935397700211</v>
       </c>
-      <c r="I15" s="2">
-        <f>(I13-I14)/I13*100</f>
+      <c r="I16" s="2">
+        <f>(I14-I15)/I14*100</f>
         <v>47.883542013390844</v>
       </c>
-      <c r="J15" s="2">
-        <f>(J13-J14)/J13*100</f>
+      <c r="J16" s="2">
+        <f>(J14-J15)/J14*100</f>
         <v>21.903904684084708</v>
       </c>
-      <c r="K15" s="2">
-        <f>(K13-K14)/K13*100</f>
+      <c r="K16" s="2">
+        <f>(K14-K15)/K14*100</f>
         <v>-10.0752447739356</v>
       </c>
-      <c r="L15" s="2">
-        <f>(L13-L14)/L13*100</f>
+      <c r="L16" s="2">
+        <f>(L14-L15)/L14*100</f>
         <v>-10.716825116787874</v>
       </c>
-      <c r="M15" s="2">
-        <f>(M13-M14)/M13*100</f>
+      <c r="M16" s="2">
+        <f>(M14-M15)/M14*100</f>
         <v>-10.748652701940886</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" t="s">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" t="s">
-        <v>205</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
-        <f>I7</f>
-        <v>86.773992060242065</v>
-      </c>
-      <c r="C19" s="2">
-        <f>I15</f>
-        <v>47.883542013390844</v>
-      </c>
-      <c r="D19" s="2">
-        <f>C7</f>
-        <v>65.537514767132933</v>
-      </c>
-      <c r="E19" s="2">
-        <f>C15</f>
-        <v>36.255593081801443</v>
+      <c r="B19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
-        <f>J7</f>
-        <v>60.847496602827157</v>
+        <f>I8</f>
+        <v>86.773992060242065</v>
       </c>
       <c r="C20" s="2">
-        <f>J15</f>
-        <v>21.903904684084708</v>
+        <f>I16</f>
+        <v>47.883542013390844</v>
       </c>
       <c r="D20" s="2">
-        <f>D7</f>
-        <v>25.714687783730639</v>
+        <f>C8</f>
+        <v>65.537514767132933</v>
       </c>
       <c r="E20" s="2">
-        <f>D15</f>
-        <v>12.649888581555516</v>
+        <f>C16</f>
+        <v>36.255593081801443</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
-        <f>K7</f>
-        <v>-79.095280499662749</v>
+        <f>J8</f>
+        <v>60.847496602827157</v>
       </c>
       <c r="C21" s="2">
-        <f>K15</f>
-        <v>-10.0752447739356</v>
+        <f>J16</f>
+        <v>21.903904684084708</v>
       </c>
       <c r="D21" s="2">
-        <f>E7</f>
-        <v>-63.532671773712067</v>
+        <f>D8</f>
+        <v>25.714687783730639</v>
       </c>
       <c r="E21" s="2">
-        <f>E15</f>
-        <v>-5.9772183609751295</v>
+        <f>D16</f>
+        <v>12.649888581555516</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
-        <f>L7</f>
-        <v>-93.524513586665691</v>
+        <f>K8</f>
+        <v>-79.095280499662749</v>
       </c>
       <c r="C22" s="2">
-        <f>L15</f>
-        <v>-10.716825116787874</v>
+        <f>K16</f>
+        <v>-10.0752447739356</v>
       </c>
       <c r="D22" s="2">
-        <f>F7</f>
-        <v>-67.600631551501905</v>
+        <f>E8</f>
+        <v>-63.532671773712067</v>
       </c>
       <c r="E22" s="2">
-        <f>F15</f>
-        <v>-6.2434460195500163</v>
+        <f>E16</f>
+        <v>-5.9772183609751295</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <f>M7</f>
-        <v>-82.817283898446604</v>
+        <f>L8</f>
+        <v>-93.524513586665691</v>
       </c>
       <c r="C23" s="2">
-        <f>M15</f>
-        <v>-10.748652701940886</v>
+        <f>L16</f>
+        <v>-10.716825116787874</v>
       </c>
       <c r="D23" s="2">
-        <f>G7</f>
-        <v>-58.185178232010415</v>
+        <f>F8</f>
+        <v>-67.600631551501905</v>
       </c>
       <c r="E23" s="2">
-        <f>G15</f>
-        <v>-7.0645851009709677</v>
+        <f>F16</f>
+        <v>-6.2434460195500163</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <f>H7</f>
+        <f>M8</f>
+        <v>-82.817283898446604</v>
+      </c>
+      <c r="C24" s="2">
+        <f>M16</f>
+        <v>-10.748652701940886</v>
+      </c>
+      <c r="D24" s="2">
+        <f>G8</f>
+        <v>-58.185178232010415</v>
+      </c>
+      <c r="E24" s="2">
+        <f>G16</f>
+        <v>-7.0645851009709677</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <f>H8</f>
         <v>38.424804029226458</v>
       </c>
-      <c r="C24" s="2">
-        <f>H15</f>
+      <c r="C25" s="2">
+        <f>H16</f>
         <v>25.114935397700211</v>
       </c>
-      <c r="D24" s="2">
-        <f>B7</f>
+      <c r="D25" s="2">
+        <f>B8</f>
         <v>25.165258831314269</v>
       </c>
-      <c r="E24" s="2">
-        <f>B15</f>
+      <c r="E25" s="2">
+        <f>B16</f>
         <v>17.415827815790934</v>
       </c>
     </row>

--- a/UbsRec/beta/final.xlsx
+++ b/UbsRec/beta/final.xlsx
@@ -701,10 +701,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -989,57 +988,60 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.8619</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.9123</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.67630000000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.73129999999999995</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1.1354</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>1.6516</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>1.2455000000000001</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>1.4158999999999999</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>0.7339</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>0.80410000000000004</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>1.839</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>3.6265999999999998</v>
       </c>
     </row>
@@ -1082,67 +1084,67 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1.034</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>1.5860000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.77400000000000002</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0.97699999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="B6" s="1">
         <f>B2/0.8619*1.034</f>
         <v>1.034</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f t="shared" ref="C6:G6" si="0">C2/0.8619*1.034</f>
         <v>1.0944636268708667</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0.81134029469776081</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>0.87732242719573039</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>1.362111149785358</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>1.9813834551572109</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f>H2/1.2455*1.586</f>
         <v>1.5860000000000001</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <f t="shared" ref="I6:M6" si="1">I2/1.2455*1.586</f>
         <v>1.8029846647932557</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>0.93453665194700919</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <f t="shared" si="1"/>
         <v>1.0239282215977519</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <f t="shared" si="1"/>
         <v>2.341753512645524</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
         <v>4.6180550782818139</v>
       </c>
@@ -1198,93 +1200,93 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <f>(B6-B7)/B6*100</f>
         <v>25.165258831314269</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f>(C6-C7)/C6*100</f>
         <v>65.537514767132933</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f>(D6-D7)/D6*100</f>
         <v>25.714687783730639</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f>(E6-E7)/E6*100</f>
         <v>-63.532671773712067</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f>(F6-F7)/F6*100</f>
         <v>-67.600631551501905</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f>(G6-G7)/G6*100</f>
         <v>-58.185178232010415</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f>(H6-H7)/H6*100</f>
         <v>38.424804029226458</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f>(I6-I7)/I6*100</f>
         <v>86.773992060242065</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <f>(J6-J7)/J6*100</f>
         <v>60.847496602827157</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f>(K6-K7)/K6*100</f>
         <v>-79.095280499662749</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <f>(L6-L7)/L6*100</f>
         <v>-93.524513586665691</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <f>(M6-M7)/M6*100</f>
         <v>-82.817283898446604</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.88</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1.0652999999999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.65810000000000002</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.5917</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.88949999999999996</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>1.4649000000000001</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>1.3001</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>1.7585</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>0.70889999999999997</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>0.5857</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>1.2607999999999999</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>3.1009000000000002</v>
       </c>
     </row>
@@ -1327,67 +1329,67 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>1.2989999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13">
+      <c r="B13" s="1">
         <v>0.75900000000000001</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14">
+      <c r="B14" s="1">
         <f>B10/0.88*0.919</f>
         <v>0.91900000000000004</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <f t="shared" ref="C14:G14" si="4">C10/0.88*0.919</f>
         <v>1.1125121590909091</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <f t="shared" si="4"/>
         <v>0.68726579545454547</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <f t="shared" si="4"/>
         <v>0.61792306818181819</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <f t="shared" si="4"/>
         <v>0.92892102272727273</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <f t="shared" si="4"/>
         <v>1.5298217045454547</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <f>H10/1.3001*1.299</f>
         <v>1.2989999999999999</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <f t="shared" ref="I14:M14" si="5">I10/1.3001*1.299</f>
         <v>1.7570121529113143</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <f t="shared" si="5"/>
         <v>0.70830020767633251</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <f t="shared" si="5"/>
         <v>0.5852044458118606</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <f t="shared" si="5"/>
         <v>1.2597332512883621</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <f t="shared" si="5"/>
         <v>3.098276363356665</v>
       </c>
@@ -1443,181 +1445,181 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <f>(B14-B15)/B14*100</f>
         <v>17.415827815790934</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <f>(C14-C15)/C14*100</f>
         <v>36.255593081801443</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <f>(D14-D15)/D14*100</f>
         <v>12.649888581555516</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <f>(E14-E15)/E14*100</f>
         <v>-5.9772183609751295</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <f>(F14-F15)/F14*100</f>
         <v>-6.2434460195500163</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <f>(G14-G15)/G14*100</f>
         <v>-7.0645851009709677</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <f>(H14-H15)/H14*100</f>
         <v>25.114935397700211</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <f>(I14-I15)/I14*100</f>
         <v>47.883542013390844</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <f>(J14-J15)/J14*100</f>
         <v>21.903904684084708</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <f>(K14-K15)/K14*100</f>
         <v>-10.0752447739356</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <f>(L14-L15)/L14*100</f>
         <v>-10.716825116787874</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <f>(M14-M15)/M14*100</f>
         <v>-10.748652701940886</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <f>I8</f>
         <v>86.773992060242065</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <f>I16</f>
         <v>47.883542013390844</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <f>C8</f>
         <v>65.537514767132933</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <f>C16</f>
         <v>36.255593081801443</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <f>J8</f>
         <v>60.847496602827157</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <f>J16</f>
         <v>21.903904684084708</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <f>D8</f>
         <v>25.714687783730639</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <f>D16</f>
         <v>12.649888581555516</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <f>K8</f>
         <v>-79.095280499662749</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <f>K16</f>
         <v>-10.0752447739356</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <f>E8</f>
         <v>-63.532671773712067</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <f>E16</f>
         <v>-5.9772183609751295</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <f>L8</f>
         <v>-93.524513586665691</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <f>L16</f>
         <v>-10.716825116787874</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <f>F8</f>
         <v>-67.600631551501905</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <f>F16</f>
         <v>-6.2434460195500163</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <f>M8</f>
         <v>-82.817283898446604</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <f>M16</f>
         <v>-10.748652701940886</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <f>G8</f>
         <v>-58.185178232010415</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <f>G16</f>
         <v>-7.0645851009709677</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <f>H8</f>
         <v>38.424804029226458</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <f>H16</f>
         <v>25.114935397700211</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <f>B8</f>
         <v>25.165258831314269</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <f>B16</f>
         <v>17.415827815790934</v>
       </c>

--- a/UbsRec/beta/final.xlsx
+++ b/UbsRec/beta/final.xlsx
@@ -701,9 +701,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -987,639 +988,639 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0.8619</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.9123</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.67630000000000001</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.73129999999999995</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>1.1354</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>1.6516</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>1.2455000000000001</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>1.4158999999999999</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>0.7339</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>0.80410000000000004</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>1.839</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>3.6265999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.759795</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.37035699999999999</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.59180500000000003</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>1.408758</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>2.2416140000000002</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>3.077563</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>1.160504</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>0.28337299999999999</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>0.43480400000000002</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>2.1791710000000002</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>5.3853609999999996</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>10.032612</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>1.034</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>1.5860000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>0.77400000000000002</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>0.97699999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <f>B2/0.8619*1.034</f>
         <v>1.034</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <f t="shared" ref="C6:G6" si="0">C2/0.8619*1.034</f>
         <v>1.0944636268708667</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>0.81134029469776081</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0.87732242719573039</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>1.362111149785358</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>1.9813834551572109</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f>H2/1.2455*1.586</f>
         <v>1.5860000000000001</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <f t="shared" ref="I6:M6" si="1">I2/1.2455*1.586</f>
         <v>1.8029846647932557</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <f t="shared" si="1"/>
         <v>0.93453665194700919</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
         <v>1.0239282215977519</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <f t="shared" si="1"/>
         <v>2.341753512645524</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <f t="shared" si="1"/>
         <v>4.6180550782818139</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <f>B3/0.76*0.774</f>
         <v>0.77379122368421049</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <f t="shared" ref="C7:G7" si="2">C3/0.76*0.774</f>
         <v>0.3771793657894737</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <f t="shared" si="2"/>
         <v>0.60270667105263154</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <f t="shared" si="2"/>
         <v>1.4347088052631578</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <f t="shared" si="2"/>
         <v>2.2829068894736841</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <f t="shared" si="2"/>
         <v>3.1342549500000003</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <f>H3/1.161*0.977</f>
         <v>0.97658260809646846</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <f t="shared" ref="I7:M7" si="3">I3/1.161*0.977</f>
         <v>0.23846289491817396</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <f t="shared" si="3"/>
         <v>0.36589449440137817</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <f t="shared" si="3"/>
         <v>1.8338071205857021</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <f t="shared" si="3"/>
         <v>4.5318670947459081</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <f t="shared" si="3"/>
         <v>8.4426028630490944</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <f>(B6-B7)/B6*100</f>
         <v>25.165258831314269</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <f>(C6-C7)/C6*100</f>
         <v>65.537514767132933</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <f>(D6-D7)/D6*100</f>
         <v>25.714687783730639</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <f>(E6-E7)/E6*100</f>
         <v>-63.532671773712067</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <f>(F6-F7)/F6*100</f>
         <v>-67.600631551501905</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <f>(G6-G7)/G6*100</f>
         <v>-58.185178232010415</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <f>(H6-H7)/H6*100</f>
         <v>38.424804029226458</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <f>(I6-I7)/I6*100</f>
         <v>86.773992060242065</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <f>(J6-J7)/J6*100</f>
         <v>60.847496602827157</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <f>(K6-K7)/K6*100</f>
         <v>-79.095280499662749</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <f>(L6-L7)/L6*100</f>
         <v>-93.524513586665691</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <f>(M6-M7)/M6*100</f>
         <v>-82.817283898446604</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>0.88</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>1.0652999999999999</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.65810000000000002</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>0.5917</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.88949999999999996</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>1.4649000000000001</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>1.3001</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>1.7585</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>0.70889999999999997</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>0.5857</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>1.2607999999999999</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <v>3.1009000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>0.76694799999999996</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0.71663900000000003</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.60665500000000006</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>0.66176000000000001</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.99731999999999998</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>1.6551610000000001</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>1.0167459999999999</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>0.95710099999999998</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>0.57816900000000004</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <v>0.67329499999999998</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <v>1.457808</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
         <v>3.5864660000000002</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>1.2989999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>0.75900000000000001</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <f>B10/0.88*0.919</f>
         <v>0.91900000000000004</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <f t="shared" ref="C14:G14" si="4">C10/0.88*0.919</f>
         <v>1.1125121590909091</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <f t="shared" si="4"/>
         <v>0.68726579545454547</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <f t="shared" si="4"/>
         <v>0.61792306818181819</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <f t="shared" si="4"/>
         <v>0.92892102272727273</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <f t="shared" si="4"/>
         <v>1.5298217045454547</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <f>H10/1.3001*1.299</f>
         <v>1.2989999999999999</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <f t="shared" ref="I14:M14" si="5">I10/1.3001*1.299</f>
         <v>1.7570121529113143</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <f t="shared" si="5"/>
         <v>0.70830020767633251</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <f t="shared" si="5"/>
         <v>0.5852044458118606</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="2">
         <f t="shared" si="5"/>
         <v>1.2597332512883621</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="2">
         <f t="shared" si="5"/>
         <v>3.098276363356665</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <f>B11/0.767*0.759</f>
         <v>0.75894854237288134</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <f t="shared" ref="C15:G15" si="6">C11/0.767*0.759</f>
         <v>0.70916427770534551</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <f t="shared" si="6"/>
         <v>0.60032743807040423</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <f t="shared" si="6"/>
         <v>0.6548576792698827</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <f t="shared" si="6"/>
         <v>0.98691770534550194</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <f t="shared" si="6"/>
         <v>1.637897260756193</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <f>H11/1.017*0.973</f>
         <v>0.97275698918387421</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <f t="shared" ref="I15:M15" si="7">I11/1.017*0.973</f>
         <v>0.91569250049164208</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <f t="shared" si="7"/>
         <v>0.5531548053097346</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <f t="shared" si="7"/>
         <v>0.64416522615535887</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2">
         <f t="shared" si="7"/>
         <v>1.3947366607669618</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="2">
         <f t="shared" si="7"/>
         <v>3.431299329400197</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <f>(B14-B15)/B14*100</f>
         <v>17.415827815790934</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <f>(C14-C15)/C14*100</f>
         <v>36.255593081801443</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <f>(D14-D15)/D14*100</f>
         <v>12.649888581555516</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <f>(E14-E15)/E14*100</f>
         <v>-5.9772183609751295</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <f>(F14-F15)/F14*100</f>
         <v>-6.2434460195500163</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <f>(G14-G15)/G14*100</f>
         <v>-7.0645851009709677</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <f>(H14-H15)/H14*100</f>
         <v>25.114935397700211</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <f>(I14-I15)/I14*100</f>
         <v>47.883542013390844</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <f>(J14-J15)/J14*100</f>
         <v>21.903904684084708</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <f>(K14-K15)/K14*100</f>
         <v>-10.0752447739356</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
         <f>(L14-L15)/L14*100</f>
         <v>-10.716825116787874</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
         <f>(M14-M15)/M14*100</f>
         <v>-10.748652701940886</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <f>I8</f>
         <v>86.773992060242065</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <f>I16</f>
         <v>47.883542013390844</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <f>C8</f>
         <v>65.537514767132933</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <f>C16</f>
         <v>36.255593081801443</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <f>J8</f>
         <v>60.847496602827157</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <f>J16</f>
         <v>21.903904684084708</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <f>D8</f>
         <v>25.714687783730639</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <f>D16</f>
         <v>12.649888581555516</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <f>K8</f>
         <v>-79.095280499662749</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <f>K16</f>
         <v>-10.0752447739356</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <f>E8</f>
         <v>-63.532671773712067</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <f>E16</f>
         <v>-5.9772183609751295</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <f>L8</f>
         <v>-93.524513586665691</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <f>L16</f>
         <v>-10.716825116787874</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <f>F8</f>
         <v>-67.600631551501905</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <f>F16</f>
         <v>-6.2434460195500163</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <f>M8</f>
         <v>-82.817283898446604</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <f>M16</f>
         <v>-10.748652701940886</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <f>G8</f>
         <v>-58.185178232010415</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <f>G16</f>
         <v>-7.0645851009709677</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <f>H8</f>
         <v>38.424804029226458</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <f>H16</f>
         <v>25.114935397700211</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <f>B8</f>
         <v>25.165258831314269</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <f>B16</f>
         <v>17.415827815790934</v>
       </c>
